--- a/LR3/table_1_21.xlsx
+++ b/LR3/table_1_21.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Милена\Для института\ИТ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Милена\Для института\ИТ\ЛР3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -41,12 +41,6 @@
     <t>Тариф, руб./кв.м.</t>
   </si>
   <si>
-    <t xml:space="preserve">Срок оплаты, дней </t>
-  </si>
-  <si>
-    <t>Просрочка, руб.</t>
-  </si>
-  <si>
     <t>Аминова</t>
   </si>
   <si>
@@ -155,28 +149,34 @@
     <t>Куропаткин 16</t>
   </si>
   <si>
-    <t>Пени за 1 день</t>
-  </si>
-  <si>
     <t xml:space="preserve">Штраф, руб. </t>
   </si>
   <si>
     <t>Итого, руб.</t>
   </si>
   <si>
-    <t>52255, руб.</t>
-  </si>
-  <si>
-    <t>61,25, кв.м.</t>
-  </si>
-  <si>
-    <t>1617, руб.</t>
-  </si>
-  <si>
-    <t>27 дней.</t>
-  </si>
-  <si>
     <t>Фамилия квартиросъёмщика</t>
+  </si>
+  <si>
+    <t>Пени за 1 день, руб.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Срок оплаты </t>
+  </si>
+  <si>
+    <t>Просрочка, дней</t>
+  </si>
+  <si>
+    <t>Общая сумма, руб.</t>
+  </si>
+  <si>
+    <t>Средняя площадь, кв.м.</t>
+  </si>
+  <si>
+    <t>Максимальный срок просрочки дней.</t>
+  </si>
+  <si>
+    <t>Максимальная сумма, руб.</t>
   </si>
 </sst>
 </file>
@@ -550,13 +550,13 @@
   <dimension ref="A1:K44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.09765625" customWidth="1"/>
-    <col min="2" max="2" width="25" customWidth="1"/>
+    <col min="2" max="2" width="35.8984375" customWidth="1"/>
     <col min="3" max="3" width="15.8984375" customWidth="1"/>
     <col min="4" max="4" width="14.5" customWidth="1"/>
     <col min="5" max="5" width="12.69921875" customWidth="1"/>
@@ -588,7 +588,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>2</v>
@@ -600,22 +600,22 @@
         <v>3</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -623,7 +623,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1">
         <v>70</v>
@@ -660,11 +660,11 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
-        <f>SUM(A3+1)</f>
+        <f>A3+1</f>
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C4" s="1">
         <f>SUM(C3-0.5)</f>
@@ -702,11 +702,11 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
-        <f t="shared" ref="A5:A38" si="4">SUM(A4+1)</f>
+        <f t="shared" ref="A5:A38" si="4">A4+1</f>
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" ref="C5:C38" si="5">SUM(C4-0.5)</f>
@@ -748,7 +748,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="5"/>
@@ -790,7 +790,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="5"/>
@@ -832,7 +832,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="5"/>
@@ -874,7 +874,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="5"/>
@@ -916,7 +916,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="5"/>
@@ -958,7 +958,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" si="5"/>
@@ -1000,7 +1000,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C12" s="1">
         <f t="shared" si="5"/>
@@ -1042,7 +1042,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C13" s="1">
         <f t="shared" si="5"/>
@@ -1084,7 +1084,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C14" s="1">
         <f t="shared" si="5"/>
@@ -1126,7 +1126,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C15" s="1">
         <f t="shared" si="5"/>
@@ -1168,7 +1168,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C16" s="1">
         <f t="shared" si="5"/>
@@ -1210,7 +1210,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C17" s="1">
         <f t="shared" si="5"/>
@@ -1252,7 +1252,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C18" s="1">
         <f t="shared" si="5"/>
@@ -1294,7 +1294,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C19" s="1">
         <f t="shared" si="5"/>
@@ -1336,7 +1336,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C20" s="1">
         <f t="shared" si="5"/>
@@ -1378,7 +1378,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C21" s="1">
         <f t="shared" si="5"/>
@@ -1420,7 +1420,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C22" s="1">
         <f t="shared" si="5"/>
@@ -1462,7 +1462,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C23" s="1">
         <f t="shared" si="5"/>
@@ -1504,7 +1504,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C24" s="1">
         <f t="shared" si="5"/>
@@ -1546,7 +1546,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C25" s="1">
         <f t="shared" si="5"/>
@@ -1588,7 +1588,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C26" s="1">
         <f t="shared" si="5"/>
@@ -1630,7 +1630,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C27" s="1">
         <f t="shared" si="5"/>
@@ -1672,7 +1672,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C28" s="1">
         <f t="shared" si="5"/>
@@ -1714,7 +1714,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C29" s="1">
         <f t="shared" si="5"/>
@@ -1756,7 +1756,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C30" s="1">
         <f t="shared" si="5"/>
@@ -1798,7 +1798,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C31" s="1">
         <f t="shared" si="5"/>
@@ -1840,7 +1840,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C32" s="1">
         <f t="shared" si="5"/>
@@ -1882,7 +1882,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C33" s="1">
         <f t="shared" si="5"/>
@@ -1924,7 +1924,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C34" s="1">
         <f t="shared" si="5"/>
@@ -1966,7 +1966,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C35" s="1">
         <f t="shared" si="5"/>
@@ -2004,11 +2004,11 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
-        <f>SUM(A35+1)</f>
+        <f t="shared" si="4"/>
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C36" s="1">
         <f t="shared" si="5"/>
@@ -2050,7 +2050,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C37" s="1">
         <f t="shared" si="5"/>
@@ -2092,7 +2092,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C38" s="1">
         <f t="shared" si="5"/>
@@ -2130,7 +2130,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B40" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C40" s="1">
         <f>INT(SUM(K3:K38))</f>
@@ -2139,7 +2139,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B41" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C41" s="1">
         <f>AVERAGE(C3:C38)</f>
@@ -2157,7 +2157,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B43" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C43" s="1">
         <f>MAX(K3:K38)</f>

--- a/LR3/table_1_21.xlsx
+++ b/LR3/table_1_21.xlsx
@@ -1,23 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Милена\Для института\ИТ\ЛР3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D8D81B2-7A3C-4FF1-A7EC-AAC174BF3B0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10632" windowHeight="11376"/>
+    <workbookView xWindow="4356" yWindow="1968" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -149,9 +160,6 @@
     <t>Куропаткин 16</t>
   </si>
   <si>
-    <t xml:space="preserve">Штраф, руб. </t>
-  </si>
-  <si>
     <t>Итого, руб.</t>
   </si>
   <si>
@@ -161,9 +169,6 @@
     <t>Пени за 1 день, руб.</t>
   </si>
   <si>
-    <t xml:space="preserve">Срок оплаты </t>
-  </si>
-  <si>
     <t>Просрочка, дней</t>
   </si>
   <si>
@@ -173,16 +178,22 @@
     <t>Средняя площадь, кв.м.</t>
   </si>
   <si>
-    <t>Максимальный срок просрочки дней.</t>
-  </si>
-  <si>
     <t>Максимальная сумма, руб.</t>
+  </si>
+  <si>
+    <t>Максимальный срок просрочки, дней</t>
+  </si>
+  <si>
+    <t>Штраф, руб.</t>
+  </si>
+  <si>
+    <t>Срок оплаты</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -219,7 +230,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -233,6 +244,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -546,11 +558,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -588,7 +600,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>2</v>
@@ -600,22 +612,22 @@
         <v>3</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -2129,8 +2141,8 @@
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B40" s="1" t="s">
-        <v>47</v>
+      <c r="B40" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="C40" s="1">
         <f>INT(SUM(K3:K38))</f>
@@ -2138,8 +2150,8 @@
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B41" s="1" t="s">
-        <v>48</v>
+      <c r="B41" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="C41" s="1">
         <f>AVERAGE(C3:C38)</f>
@@ -2147,8 +2159,8 @@
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B42" s="1" t="s">
-        <v>49</v>
+      <c r="B42" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="C42" s="1">
         <f>MAX(H3:H38)</f>
@@ -2156,8 +2168,8 @@
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B43" s="1" t="s">
-        <v>50</v>
+      <c r="B43" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="C43" s="1">
         <f>MAX(K3:K38)</f>

--- a/LR3/table_1_21.xlsx
+++ b/LR3/table_1_21.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\IT\IT_LR\LR3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\darkh\OneDrive\Рабочий стол\Друзяки\Миленка\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D8D81B2-7A3C-4FF1-A7EC-AAC174BF3B0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B357F38F-B9E2-451F-AE25-2AC6BB00843B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4356" yWindow="1968" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -561,8 +561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -641,7 +641,7 @@
         <v>70</v>
       </c>
       <c r="D3" s="1">
-        <f>21*1.1</f>
+        <f>$A$1*1.1</f>
         <v>23.1</v>
       </c>
       <c r="E3" s="1">
@@ -655,14 +655,14 @@
         <v>44805</v>
       </c>
       <c r="H3" s="1">
-        <f>IF(F3&gt;=G3,0,G3-F3)</f>
+        <f>IF(G3&lt;=F3,0,G3-F3)</f>
         <v>0</v>
       </c>
       <c r="I3" s="1">
         <v>10</v>
       </c>
       <c r="J3" s="1">
-        <f>I3*H3</f>
+        <f>H3*I3</f>
         <v>0</v>
       </c>
       <c r="K3" s="1">
@@ -679,1464 +679,1569 @@
         <v>6</v>
       </c>
       <c r="C4" s="1">
-        <f>SUM(C3-0.5)</f>
+        <f>C3-0.5</f>
         <v>69.5</v>
       </c>
       <c r="D4" s="1">
-        <f>21*1.1</f>
+        <f t="shared" ref="D4:D34" si="0">$A$1*1.1</f>
         <v>23.1</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" ref="E4:E38" si="0">C4*D4</f>
+        <f t="shared" ref="E4:E38" si="1">C4*D4</f>
         <v>1605.45</v>
       </c>
       <c r="F4" s="2">
+        <f>$F$3</f>
         <v>44813</v>
       </c>
       <c r="G4" s="2">
+        <f>G3+1</f>
         <v>44806</v>
       </c>
       <c r="H4" s="1">
-        <f t="shared" ref="H4:H38" si="1">IF(F4&gt;=G4,0,G4-F4)</f>
+        <f t="shared" ref="H4:H38" si="2">IF(G4&lt;=F4,0,G4-F4)</f>
         <v>0</v>
       </c>
       <c r="I4" s="1">
+        <f>$I$3</f>
         <v>10</v>
       </c>
       <c r="J4" s="1">
-        <f t="shared" ref="J4:J38" si="2">I4*H4</f>
+        <f t="shared" ref="J4:J38" si="3">H4*I4</f>
         <v>0</v>
       </c>
       <c r="K4" s="1">
-        <f t="shared" ref="K4:K38" si="3">E4+J4</f>
+        <f t="shared" ref="K4:K38" si="4">E4+J4</f>
         <v>1605.45</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
-        <f t="shared" ref="A5:A38" si="4">A4+1</f>
+        <f t="shared" ref="A5:A38" si="5">A4+1</f>
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="1">
-        <f t="shared" ref="C5:C38" si="5">SUM(C4-0.5)</f>
+        <f t="shared" ref="C5:C38" si="6">C4-0.5</f>
         <v>69</v>
       </c>
       <c r="D5" s="1">
-        <f t="shared" ref="D5:D33" si="6">21*1.1</f>
+        <f t="shared" si="0"/>
         <v>23.1</v>
       </c>
       <c r="E5" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1593.9</v>
       </c>
       <c r="F5" s="2">
+        <f t="shared" ref="F5:F38" si="7">$F$3</f>
         <v>44813</v>
       </c>
       <c r="G5" s="2">
+        <f t="shared" ref="G5:G38" si="8">G4+1</f>
         <v>44807</v>
       </c>
       <c r="H5" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I5" s="1">
+        <f>I4</f>
         <v>10</v>
       </c>
       <c r="J5" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K5" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1593.9</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>68.5</v>
       </c>
       <c r="D6" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>23.1</v>
       </c>
       <c r="E6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1582.3500000000001</v>
       </c>
       <c r="F6" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G6" s="2">
+        <f t="shared" si="8"/>
         <v>44808</v>
       </c>
       <c r="H6" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I6" s="1">
+        <f t="shared" ref="I6:I38" si="9">I5</f>
         <v>10</v>
       </c>
       <c r="J6" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K6" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1582.3500000000001</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>68</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>23.1</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1570.8000000000002</v>
       </c>
       <c r="F7" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G7" s="2">
+        <f t="shared" si="8"/>
         <v>44809</v>
       </c>
       <c r="H7" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I7" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J7" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K7" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1570.8000000000002</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>67.5</v>
       </c>
       <c r="D8" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>23.1</v>
       </c>
       <c r="E8" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1559.25</v>
       </c>
       <c r="F8" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G8" s="2">
+        <f t="shared" si="8"/>
         <v>44810</v>
       </c>
       <c r="H8" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I8" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J8" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K8" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1559.25</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>67</v>
       </c>
       <c r="D9" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>23.1</v>
       </c>
       <c r="E9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1547.7</v>
       </c>
       <c r="F9" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G9" s="2">
+        <f t="shared" si="8"/>
         <v>44811</v>
       </c>
       <c r="H9" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I9" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J9" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K9" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1547.7</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>66.5</v>
       </c>
       <c r="D10" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>23.1</v>
       </c>
       <c r="E10" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1536.15</v>
       </c>
       <c r="F10" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G10" s="2">
+        <f t="shared" si="8"/>
         <v>44812</v>
       </c>
       <c r="H10" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I10" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J10" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K10" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1536.15</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>66</v>
       </c>
       <c r="D11" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>23.1</v>
       </c>
       <c r="E11" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1524.6000000000001</v>
       </c>
       <c r="F11" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G11" s="2">
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="H11" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I11" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J11" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K11" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1524.6000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>65.5</v>
       </c>
       <c r="D12" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>23.1</v>
       </c>
       <c r="E12" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1513.0500000000002</v>
       </c>
       <c r="F12" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G12" s="2">
+        <f t="shared" si="8"/>
         <v>44814</v>
       </c>
       <c r="H12" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I12" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J12" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="K12" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1523.0500000000002</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C13" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>65</v>
       </c>
       <c r="D13" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>23.1</v>
       </c>
       <c r="E13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1501.5</v>
       </c>
       <c r="F13" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G13" s="2">
+        <f t="shared" si="8"/>
         <v>44815</v>
       </c>
       <c r="H13" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="I13" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J13" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="K13" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1521.5</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C14" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>64.5</v>
       </c>
       <c r="D14" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>23.1</v>
       </c>
       <c r="E14" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1489.95</v>
       </c>
       <c r="F14" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G14" s="2">
+        <f t="shared" si="8"/>
         <v>44816</v>
       </c>
       <c r="H14" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="I14" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J14" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="K14" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1519.95</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C15" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>64</v>
       </c>
       <c r="D15" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>23.1</v>
       </c>
       <c r="E15" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1478.4</v>
       </c>
       <c r="F15" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G15" s="2">
+        <f t="shared" si="8"/>
         <v>44817</v>
       </c>
       <c r="H15" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="I15" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J15" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
       <c r="K15" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1518.4</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C16" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>63.5</v>
       </c>
       <c r="D16" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>23.1</v>
       </c>
       <c r="E16" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1466.8500000000001</v>
       </c>
       <c r="F16" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G16" s="2">
+        <f t="shared" si="8"/>
         <v>44818</v>
       </c>
       <c r="H16" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="I16" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J16" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="K16" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1516.8500000000001</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C17" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>63</v>
       </c>
       <c r="D17" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>23.1</v>
       </c>
       <c r="E17" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1455.3000000000002</v>
       </c>
       <c r="F17" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G17" s="2">
+        <f t="shared" si="8"/>
         <v>44819</v>
       </c>
       <c r="H17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="I17" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J17" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="K17" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1515.3000000000002</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C18" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>62.5</v>
       </c>
       <c r="D18" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>23.1</v>
       </c>
       <c r="E18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1443.75</v>
       </c>
       <c r="F18" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G18" s="2">
+        <f t="shared" si="8"/>
         <v>44820</v>
       </c>
       <c r="H18" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="I18" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J18" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>70</v>
       </c>
       <c r="K18" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1513.75</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C19" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>62</v>
       </c>
       <c r="D19" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>23.1</v>
       </c>
       <c r="E19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1432.2</v>
       </c>
       <c r="F19" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G19" s="2">
+        <f t="shared" si="8"/>
         <v>44821</v>
       </c>
       <c r="H19" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="I19" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J19" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
       <c r="K19" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1512.2</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C20" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>61.5</v>
       </c>
       <c r="D20" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>23.1</v>
       </c>
       <c r="E20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1420.65</v>
       </c>
       <c r="F20" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G20" s="2">
+        <f t="shared" si="8"/>
         <v>44822</v>
       </c>
       <c r="H20" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="I20" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J20" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>90</v>
       </c>
       <c r="K20" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1510.65</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C21" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>61</v>
       </c>
       <c r="D21" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>23.1</v>
       </c>
       <c r="E21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1409.1000000000001</v>
       </c>
       <c r="F21" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G21" s="2">
+        <f t="shared" si="8"/>
         <v>44823</v>
       </c>
       <c r="H21" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="I21" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J21" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="K21" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1509.1000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C22" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>60.5</v>
       </c>
       <c r="D22" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>23.1</v>
       </c>
       <c r="E22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1397.5500000000002</v>
       </c>
       <c r="F22" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G22" s="2">
+        <f t="shared" si="8"/>
         <v>44824</v>
       </c>
       <c r="H22" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="I22" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J22" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>110</v>
       </c>
       <c r="K22" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1507.5500000000002</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C23" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
       <c r="D23" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>23.1</v>
       </c>
       <c r="E23" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1386</v>
       </c>
       <c r="F23" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G23" s="2">
+        <f t="shared" si="8"/>
         <v>44825</v>
       </c>
       <c r="H23" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="I23" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J23" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>120</v>
       </c>
       <c r="K23" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1506</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C24" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>59.5</v>
       </c>
       <c r="D24" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>23.1</v>
       </c>
       <c r="E24" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1374.45</v>
       </c>
       <c r="F24" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G24" s="2">
+        <f t="shared" si="8"/>
         <v>44826</v>
       </c>
       <c r="H24" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="I24" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J24" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>130</v>
       </c>
       <c r="K24" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1504.45</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C25" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>59</v>
       </c>
       <c r="D25" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>23.1</v>
       </c>
       <c r="E25" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1362.9</v>
       </c>
       <c r="F25" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G25" s="2">
+        <f t="shared" si="8"/>
         <v>44827</v>
       </c>
       <c r="H25" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="I25" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J25" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>140</v>
       </c>
       <c r="K25" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1502.9</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C26" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>58.5</v>
       </c>
       <c r="D26" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>23.1</v>
       </c>
       <c r="E26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1351.3500000000001</v>
       </c>
       <c r="F26" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G26" s="2">
+        <f t="shared" si="8"/>
         <v>44828</v>
       </c>
       <c r="H26" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="I26" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J26" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>150</v>
       </c>
       <c r="K26" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1501.3500000000001</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C27" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>58</v>
       </c>
       <c r="D27" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>23.1</v>
       </c>
       <c r="E27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1339.8000000000002</v>
       </c>
       <c r="F27" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G27" s="2">
+        <f t="shared" si="8"/>
         <v>44829</v>
       </c>
       <c r="H27" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="I27" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J27" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>160</v>
       </c>
       <c r="K27" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1499.8000000000002</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C28" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>57.5</v>
       </c>
       <c r="D28" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>23.1</v>
       </c>
       <c r="E28" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1328.25</v>
       </c>
       <c r="F28" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G28" s="2">
+        <f t="shared" si="8"/>
         <v>44830</v>
       </c>
       <c r="H28" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="I28" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J28" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>170</v>
       </c>
       <c r="K28" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1498.25</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C29" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>57</v>
       </c>
       <c r="D29" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>23.1</v>
       </c>
       <c r="E29" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1316.7</v>
       </c>
       <c r="F29" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G29" s="2">
+        <f t="shared" si="8"/>
         <v>44831</v>
       </c>
       <c r="H29" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="I29" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J29" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>180</v>
       </c>
       <c r="K29" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1496.7</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C30" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>56.5</v>
       </c>
       <c r="D30" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>23.1</v>
       </c>
       <c r="E30" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1305.1500000000001</v>
       </c>
       <c r="F30" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G30" s="2">
+        <f t="shared" si="8"/>
         <v>44832</v>
       </c>
       <c r="H30" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="I30" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J30" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>190</v>
       </c>
       <c r="K30" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1495.15</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C31" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>56</v>
       </c>
       <c r="D31" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>23.1</v>
       </c>
       <c r="E31" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1293.6000000000001</v>
       </c>
       <c r="F31" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G31" s="2">
+        <f t="shared" si="8"/>
         <v>44833</v>
       </c>
       <c r="H31" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="I31" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J31" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>200</v>
       </c>
       <c r="K31" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1493.6000000000001</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C32" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>55.5</v>
       </c>
       <c r="D32" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>23.1</v>
       </c>
       <c r="E32" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1282.0500000000002</v>
       </c>
       <c r="F32" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G32" s="2">
+        <f t="shared" si="8"/>
         <v>44834</v>
       </c>
       <c r="H32" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="I32" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J32" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>210</v>
       </c>
       <c r="K32" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1492.0500000000002</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C33" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>55</v>
       </c>
       <c r="D33" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>23.1</v>
       </c>
       <c r="E33" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1270.5</v>
       </c>
       <c r="F33" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G33" s="2">
+        <f t="shared" si="8"/>
         <v>44835</v>
       </c>
       <c r="H33" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="I33" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J33" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>220</v>
       </c>
       <c r="K33" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1490.5</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C34" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>54.5</v>
       </c>
       <c r="D34" s="1">
-        <f>21*1.1</f>
+        <f t="shared" si="0"/>
         <v>23.1</v>
       </c>
       <c r="E34" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1258.95</v>
       </c>
       <c r="F34" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G34" s="2">
+        <f t="shared" si="8"/>
         <v>44836</v>
       </c>
       <c r="H34" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="I34" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J34" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>230</v>
       </c>
       <c r="K34" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1488.95</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C35" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>54</v>
       </c>
       <c r="D35" s="1">
-        <f>21*0.55</f>
+        <f>($A$1*1.1)/2</f>
         <v>11.55</v>
       </c>
       <c r="E35" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>623.70000000000005</v>
       </c>
       <c r="F35" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G35" s="2">
+        <f t="shared" si="8"/>
         <v>44837</v>
       </c>
       <c r="H35" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="I35" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J35" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>240</v>
       </c>
       <c r="K35" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>863.7</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C36" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>53.5</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" ref="D36:D38" si="7">21*0.55</f>
+        <f t="shared" ref="D36:D38" si="10">($A$1*1.1)/2</f>
         <v>11.55</v>
       </c>
       <c r="E36" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>617.92500000000007</v>
       </c>
       <c r="F36" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G36" s="2">
+        <f t="shared" si="8"/>
         <v>44838</v>
       </c>
       <c r="H36" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="I36" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J36" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>250</v>
       </c>
       <c r="K36" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>867.92500000000007</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C37" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>53</v>
       </c>
       <c r="D37" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>11.55</v>
       </c>
       <c r="E37" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>612.15000000000009</v>
       </c>
       <c r="F37" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G37" s="2">
+        <f t="shared" si="8"/>
         <v>44839</v>
       </c>
       <c r="H37" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
       <c r="I37" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J37" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>260</v>
       </c>
       <c r="K37" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>872.15000000000009</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C38" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>52.5</v>
       </c>
       <c r="D38" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>11.55</v>
       </c>
       <c r="E38" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>606.375</v>
       </c>
       <c r="F38" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G38" s="2">
+        <f t="shared" si="8"/>
         <v>44840</v>
       </c>
       <c r="H38" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
       <c r="I38" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J38" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>270</v>
       </c>
       <c r="K38" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>876.375</v>
       </c>
     </row>

--- a/LR3/table_1_21.xlsx
+++ b/LR3/table_1_21.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\darkh\OneDrive\Рабочий стол\Друзяки\Миленка\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B357F38F-B9E2-451F-AE25-2AC6BB00843B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4356" yWindow="1968" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -193,7 +192,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -558,29 +557,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.09765625" customWidth="1"/>
-    <col min="2" max="2" width="35.8984375" customWidth="1"/>
-    <col min="3" max="3" width="15.8984375" customWidth="1"/>
+    <col min="1" max="1" width="11.125" customWidth="1"/>
+    <col min="2" max="2" width="35.875" customWidth="1"/>
+    <col min="3" max="3" width="15.875" customWidth="1"/>
     <col min="4" max="4" width="14.5" customWidth="1"/>
-    <col min="5" max="5" width="12.69921875" customWidth="1"/>
-    <col min="6" max="6" width="17.19921875" customWidth="1"/>
-    <col min="7" max="7" width="12.19921875" customWidth="1"/>
+    <col min="5" max="5" width="12.75" customWidth="1"/>
+    <col min="6" max="6" width="17.25" customWidth="1"/>
+    <col min="7" max="7" width="12.25" customWidth="1"/>
     <col min="8" max="8" width="14.5" customWidth="1"/>
-    <col min="9" max="9" width="15.09765625" customWidth="1"/>
-    <col min="10" max="10" width="11.69921875" customWidth="1"/>
-    <col min="11" max="11" width="10.09765625" customWidth="1"/>
+    <col min="9" max="9" width="15.125" customWidth="1"/>
+    <col min="10" max="10" width="11.75" customWidth="1"/>
+    <col min="11" max="11" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="4">
         <v>21</v>
       </c>
@@ -595,7 +594,7 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -630,7 +629,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -670,7 +669,7 @@
         <v>1617</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <f>A3+1</f>
         <v>2</v>
@@ -715,7 +714,7 @@
         <v>1605.45</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <f t="shared" ref="A5:A38" si="5">A4+1</f>
         <v>3</v>
@@ -760,7 +759,7 @@
         <v>1593.9</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <f t="shared" si="5"/>
         <v>4</v>
@@ -805,7 +804,7 @@
         <v>1582.3500000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -850,7 +849,7 @@
         <v>1570.8000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <f t="shared" si="5"/>
         <v>6</v>
@@ -895,7 +894,7 @@
         <v>1559.25</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <f t="shared" si="5"/>
         <v>7</v>
@@ -940,7 +939,7 @@
         <v>1547.7</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <f t="shared" si="5"/>
         <v>8</v>
@@ -985,7 +984,7 @@
         <v>1536.15</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <f t="shared" si="5"/>
         <v>9</v>
@@ -1030,7 +1029,7 @@
         <v>1524.6000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <f t="shared" si="5"/>
         <v>10</v>
@@ -1075,7 +1074,7 @@
         <v>1523.0500000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <f t="shared" si="5"/>
         <v>11</v>
@@ -1120,7 +1119,7 @@
         <v>1521.5</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <f t="shared" si="5"/>
         <v>12</v>
@@ -1165,7 +1164,7 @@
         <v>1519.95</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <f t="shared" si="5"/>
         <v>13</v>
@@ -1210,7 +1209,7 @@
         <v>1518.4</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <f t="shared" si="5"/>
         <v>14</v>
@@ -1255,7 +1254,7 @@
         <v>1516.8500000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <f t="shared" si="5"/>
         <v>15</v>
@@ -1300,7 +1299,7 @@
         <v>1515.3000000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <f t="shared" si="5"/>
         <v>16</v>
@@ -1345,7 +1344,7 @@
         <v>1513.75</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <f t="shared" si="5"/>
         <v>17</v>
@@ -1390,7 +1389,7 @@
         <v>1512.2</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <f t="shared" si="5"/>
         <v>18</v>
@@ -1435,7 +1434,7 @@
         <v>1510.65</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <f t="shared" si="5"/>
         <v>19</v>
@@ -1480,7 +1479,7 @@
         <v>1509.1000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <f t="shared" si="5"/>
         <v>20</v>
@@ -1525,7 +1524,7 @@
         <v>1507.5500000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <f t="shared" si="5"/>
         <v>21</v>
@@ -1570,7 +1569,7 @@
         <v>1506</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <f t="shared" si="5"/>
         <v>22</v>
@@ -1615,7 +1614,7 @@
         <v>1504.45</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <f t="shared" si="5"/>
         <v>23</v>
@@ -1660,7 +1659,7 @@
         <v>1502.9</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <f t="shared" si="5"/>
         <v>24</v>
@@ -1705,7 +1704,7 @@
         <v>1501.3500000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <f t="shared" si="5"/>
         <v>25</v>
@@ -1750,7 +1749,7 @@
         <v>1499.8000000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <f t="shared" si="5"/>
         <v>26</v>
@@ -1795,7 +1794,7 @@
         <v>1498.25</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <f t="shared" si="5"/>
         <v>27</v>
@@ -1840,7 +1839,7 @@
         <v>1496.7</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <f t="shared" si="5"/>
         <v>28</v>
@@ -1885,7 +1884,7 @@
         <v>1495.15</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <f t="shared" si="5"/>
         <v>29</v>
@@ -1930,7 +1929,7 @@
         <v>1493.6000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <f t="shared" si="5"/>
         <v>30</v>
@@ -1975,7 +1974,7 @@
         <v>1492.0500000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <f t="shared" si="5"/>
         <v>31</v>
@@ -2020,7 +2019,7 @@
         <v>1490.5</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <f t="shared" si="5"/>
         <v>32</v>
@@ -2065,7 +2064,7 @@
         <v>1488.95</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <f t="shared" si="5"/>
         <v>33</v>
@@ -2110,7 +2109,7 @@
         <v>863.7</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <f t="shared" si="5"/>
         <v>34</v>
@@ -2155,7 +2154,7 @@
         <v>867.92500000000007</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <f t="shared" si="5"/>
         <v>35</v>
@@ -2200,7 +2199,7 @@
         <v>872.15000000000009</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <f t="shared" si="5"/>
         <v>36</v>
@@ -2245,16 +2244,16 @@
         <v>876.375</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B40" s="5" t="s">
         <v>45</v>
       </c>
       <c r="C40" s="1">
-        <f>INT(SUM(K3:K38))</f>
+        <f>FLOOR(SUM(K3:K38),1)</f>
         <v>52255</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B41" s="5" t="s">
         <v>46</v>
       </c>
@@ -2263,7 +2262,7 @@
         <v>61.25</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B42" s="5" t="s">
         <v>48</v>
       </c>
@@ -2272,7 +2271,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B43" s="5" t="s">
         <v>47</v>
       </c>
@@ -2281,7 +2280,7 @@
         <v>1617</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
     </row>
